--- a/Sensor_Modelling/Inputs/se_op_inputs.xlsx
+++ b/Sensor_Modelling/Inputs/se_op_inputs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neilabh\Documents\GitHub\STADS_IITBSSP\Sensor_Modelling\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8C2AD4-FFB5-42CA-986D-250204A77342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFEA595-4197-40EE-A3F0-F05C78C64596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="se_op_inputs" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -553,8 +559,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -909,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,8 +945,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>20</v>
+      <c r="B2" s="1">
+        <v>12.5222</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -949,8 +956,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>15</v>
+      <c r="B3" s="1">
+        <v>10.0322</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -961,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>1280</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -972,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1504</v>
+        <v>1024</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -983,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -994,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>7.0000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1035,5 +1042,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>